--- a/AP_AHP_ANALYSIS_APP/summaryTable_Iclamp.xlsx
+++ b/AP_AHP_ANALYSIS_APP/summaryTable_Iclamp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="288" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="512" uniqueCount="96">
   <si>
     <t>cell name</t>
   </si>
@@ -275,6 +275,33 @@
   </si>
   <si>
     <t>0.18358</t>
+  </si>
+  <si>
+    <t>/Users/sayakaminegishi/MATLAB/Projects/AP_AHP_ANALYSIS_APP/AP_AHP_ANALYSIS_APP/tempdata/2024_02_08_03_0003.abf</t>
+  </si>
+  <si>
+    <t>-17.0898</t>
+  </si>
+  <si>
+    <t>3664.57</t>
+  </si>
+  <si>
+    <t>0.26356</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>121.7579</t>
+  </si>
+  <si>
+    <t>0.061822</t>
   </si>
 </sst>
 </file>
@@ -320,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -368,89 +395,89 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>57</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -542,30 +569,59 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B9" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C9" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D9" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E9" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F9" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G9" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H9" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I9" s="0" t="s">
         <v>69</v>
       </c>
     </row>
@@ -575,7 +631,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -663,125 +719,125 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="B2" s="0">
-        <v>-19.836424839070386</v>
+        <v>-14.648436804236592</v>
       </c>
       <c r="C2" s="0">
-        <v>90.678528611295278</v>
+        <v>88.822210008145035</v>
       </c>
       <c r="D2" s="0">
-        <v>12.849171346077318</v>
+        <v>8.1835291137703283</v>
       </c>
       <c r="E2" s="0">
-        <v>-51.193234873139311</v>
+        <v>-60.866503585147541</v>
       </c>
       <c r="F2" s="0">
-        <v>28675.639583333334</v>
+        <v>136228.94736842104</v>
       </c>
       <c r="G2" s="0">
-        <v>28643.311458333337</v>
+        <v>136089.97105263156</v>
       </c>
       <c r="H2" s="0">
-        <v>3.5908333333333342</v>
+        <v>1.628421052631579</v>
       </c>
       <c r="I2" s="0">
-        <v>-43.425875826378984</v>
+        <v>-57.009242512189864</v>
       </c>
       <c r="J2" s="0">
-        <v>-45.99571009559444</v>
+        <v>-58.645948334943938</v>
       </c>
       <c r="K2" s="0">
-        <v>-48.565544364809888</v>
+        <v>-60.282654157698005</v>
       </c>
       <c r="L2" s="0">
-        <v>-51.135378634025358</v>
+        <v>-61.919359980452064</v>
       </c>
       <c r="M2" s="0">
-        <v>53.872916666666669</v>
+        <v>119.69736842105263</v>
       </c>
       <c r="N2" s="0">
-        <v>63.980625000000011</v>
+        <v>140.90000000000003</v>
       </c>
       <c r="O2" s="0">
-        <v>59.089374999999997</v>
+        <v>129.40263157894742</v>
       </c>
       <c r="P2" s="0">
-        <v>46.488750000000003</v>
+        <v>95.903684210526322</v>
       </c>
       <c r="Q2" s="0">
-        <v>26.928333333333338</v>
+        <v>72.618947368421047</v>
       </c>
       <c r="R2" s="0">
-        <v>54.439791666666679</v>
+        <v>154.95578947368423</v>
       </c>
       <c r="S2" s="0">
-        <v>58.732083333333343</v>
+        <v>157.00631578947369</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="B3" s="0">
-        <v>-16.479491404766161</v>
+        <v>-17.089842938276018</v>
       </c>
       <c r="C3" s="0">
-        <v>96.520313340878346</v>
+        <v>99.487299962106817</v>
       </c>
       <c r="D3" s="0">
-        <v>14.834933106142378</v>
+        <v>8.3923335857605466</v>
       </c>
       <c r="E3" s="0">
-        <v>-58.576793007682177</v>
+        <v>-64.468380726978722</v>
       </c>
       <c r="F3" s="0">
-        <v>32346.372222222228</v>
+        <v>181480.41250000001</v>
       </c>
       <c r="G3" s="0">
-        <v>32295.03333333334</v>
+        <v>181463.71249999999</v>
       </c>
       <c r="H3" s="0">
-        <v>1.7911111111111115</v>
+        <v>1.4550000000000003</v>
       </c>
       <c r="I3" s="0">
-        <v>-49.0230960873265</v>
+        <v>-59.852597254810419</v>
       </c>
       <c r="J3" s="0">
-        <v>-51.990082708554965</v>
+        <v>-61.531063971962524</v>
       </c>
       <c r="K3" s="0">
-        <v>-54.957069329783437</v>
+        <v>-63.209530689114658</v>
       </c>
       <c r="L3" s="0">
-        <v>-57.924055951011916</v>
+        <v>-64.887997406266763</v>
       </c>
       <c r="M3" s="0">
-        <v>62.719999999999999</v>
+        <v>44.797500000000007</v>
       </c>
       <c r="N3" s="0">
-        <v>67.853333333333339</v>
+        <v>132.83500000000001</v>
       </c>
       <c r="O3" s="0">
-        <v>65.258888888888904</v>
+        <v>80.457499999999996</v>
       </c>
       <c r="P3" s="0">
-        <v>42.141111111111108</v>
+        <v>27.050000000000004</v>
       </c>
       <c r="Q3" s="0">
-        <v>3.2200000000000006</v>
+        <v>11.440000000000001</v>
       </c>
       <c r="R3" s="0">
-        <v>67.961111111111123</v>
+        <v>77.762500000000003</v>
       </c>
       <c r="S3" s="0">
-        <v>71.405555555555566</v>
+        <v>129.45250000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
@@ -981,26 +1037,85 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="0">
+        <v>-17.089842938276018</v>
+      </c>
+      <c r="C8" s="0">
+        <v>99.487299962106817</v>
+      </c>
+      <c r="D8" s="0">
+        <v>8.3923335857605466</v>
+      </c>
+      <c r="E8" s="0">
+        <v>-64.468380726978722</v>
+      </c>
+      <c r="F8" s="0">
+        <v>181480.41250000001</v>
+      </c>
+      <c r="G8" s="0">
+        <v>181463.71249999999</v>
+      </c>
+      <c r="H8" s="0">
+        <v>1.4550000000000003</v>
+      </c>
+      <c r="I8" s="0">
+        <v>-59.852597254810419</v>
+      </c>
+      <c r="J8" s="0">
+        <v>-61.531063971962524</v>
+      </c>
+      <c r="K8" s="0">
+        <v>-63.209530689114658</v>
+      </c>
+      <c r="L8" s="0">
+        <v>-64.887997406266763</v>
+      </c>
+      <c r="M8" s="0">
+        <v>44.797500000000007</v>
+      </c>
+      <c r="N8" s="0">
+        <v>132.83500000000001</v>
+      </c>
+      <c r="O8" s="0">
+        <v>80.457499999999996</v>
+      </c>
+      <c r="P8" s="0">
+        <v>27.050000000000004</v>
+      </c>
+      <c r="Q8" s="0">
+        <v>11.440000000000001</v>
+      </c>
+      <c r="R8" s="0">
+        <v>77.762500000000003</v>
+      </c>
+      <c r="S8" s="0">
+        <v>129.45250000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
+      <c r="M9" s="0"/>
+      <c r="N9" s="0"/>
+      <c r="O9" s="0"/>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
+      <c r="S9" s="0"/>
     </row>
   </sheetData>
 </worksheet>
